--- a/data.xlsx
+++ b/data.xlsx
@@ -1,109 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amomin\Documents\GitHub\xlpyFormat\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C209BA-9863-47AE-862A-A813C544443E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7932" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7932" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="data_sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data_sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>ACC-COMM</t>
-  </si>
-  <si>
-    <t>DEV-COMM</t>
-  </si>
-  <si>
-    <t>SIM-SIM</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>italic font bold</t>
-  </si>
-  <si>
-    <t>Heading</t>
-  </si>
-  <si>
-    <t>Atif Momin</t>
-  </si>
-  <si>
-    <t>Atif</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.000000_);_([$$-409]* \(#,##0.000000\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;??_);_(@_)" numFmtId="164"/>
+    <numFmt formatCode="_([$$-409]* #,##0.000000_);_([$$-409]* \(#,##0.000000\);_([$$-409]* &quot;-&quot;??_);_(@_)" numFmtId="165"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <i val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -122,12 +81,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -280,61 +239,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="00373636"/>
+      </left>
+      <right style="thick">
+        <color rgb="00373636"/>
+      </right>
+      <top style="thick">
+        <color rgb="00373636"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00373636"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00373636"/>
+      </left>
+      <right style="thin">
+        <color rgb="00373636"/>
+      </right>
+      <top style="thin">
+        <color rgb="00373636"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00373636"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="25">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -634,193 +625,287 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F18"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="6.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="20"/>
+    <col customWidth="1" max="2" min="2" width="9"/>
+    <col customWidth="1" max="3" min="3" width="16"/>
+    <col customWidth="1" max="4" min="4" width="10"/>
+    <col customWidth="1" max="5" min="5" width="12"/>
+    <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="7" min="7" width="8"/>
+    <col customWidth="1" max="8" min="8" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="1"/>
-      <c r="C1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="23"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>ACC-COMM</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>14657</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>14267</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0.9734</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>13991</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>0.9546</v>
+      </c>
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>asbads</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>DEV-COMM</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>4205</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>4046</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.9622000000000001</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4046</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.9622000000000001</v>
+      </c>
+      <c r="H4" s="7" t="inlineStr">
+        <is>
+          <t>dasdas</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>SIM-SIM</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>290</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>280</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>0.9655</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>158</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>0.5448</v>
+      </c>
+      <c r="H5" s="9" t="inlineStr">
+        <is>
+          <t>dasdas</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n"/>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="H6" s="10" t="inlineStr">
+        <is>
+          <t>dasdas</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B7" s="12" t="n">
+        <v>19152</v>
+      </c>
+      <c r="C7" s="12" t="n">
+        <v>18593</v>
+      </c>
+      <c r="D7" s="12" t="n">
+        <v>0.9708</v>
+      </c>
+      <c r="E7" s="12" t="n">
+        <v>18195</v>
+      </c>
+      <c r="F7" s="13" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H7" s="9" t="inlineStr">
+        <is>
+          <t>dasdas</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="14" t="inlineStr">
+        <is>
+          <t>italic font bold</t>
+        </is>
+      </c>
+      <c r="B8" s="15" t="n"/>
+      <c r="C8" s="15" t="n"/>
+      <c r="D8" s="15" t="n"/>
+      <c r="E8" s="15" t="n"/>
+      <c r="F8" s="15" t="n"/>
+      <c r="H8" s="16" t="inlineStr">
+        <is>
+          <t>dasdas</t>
+        </is>
+      </c>
+    </row>
+    <row r="9"/>
+    <row r="10">
+      <c r="A10" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B10" s="18" t="n"/>
+      <c r="C10" s="18" t="n"/>
+      <c r="D10" s="19" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E10" s="20" t="inlineStr">
+        <is>
+          <t>Heading</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>XPO Logistics</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B11" s="22" t="inlineStr">
+        <is>
+          <t>Atif</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>14657</v>
-      </c>
-      <c r="C3" s="3">
-        <v>14267</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.97340000000000004</v>
-      </c>
-      <c r="E3" s="4">
-        <v>13991</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.9546</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="14">
+      <c r="E14" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>4205</v>
-      </c>
-      <c r="C4" s="6">
-        <v>4046</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.96220000000000006</v>
-      </c>
-      <c r="E4" s="7">
-        <v>4046</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.96220000000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    </row>
+    <row r="15">
+      <c r="E15" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
-        <v>290</v>
-      </c>
-      <c r="C5" s="9">
-        <v>280</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0.96550000000000002</v>
-      </c>
-      <c r="E5" s="10">
-        <v>158</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0.54479999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13">
-        <v>19152</v>
-      </c>
-      <c r="C7" s="13">
-        <v>18593</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0.9708</v>
-      </c>
-      <c r="E7" s="13">
-        <v>18195</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
-        <v>1</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17">
-        <v>0.12</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
-        <v>1</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E12">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="48" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
-        <v>8</v>
+    </row>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18">
+      <c r="A18" s="23" t="inlineStr">
+        <is>
+          <t>XPO Logistics</t>
+        </is>
+      </c>
+      <c r="C18" s="24" t="inlineStr">
+        <is>
+          <t>I am typing,</t>
+        </is>
+      </c>
+      <c r="E18" s="24" t="inlineStr">
+        <is>
+          <t>•	XPO Logistics
+•	XPO Logistics
+•	XPO Logistics</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -829,7 +914,7 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A8:F8"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>